--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarosh Irfan\Desktop\AI_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Automated-Attendance-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BE089-CC0E-497B-BA53-032FF710FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B254A997-7042-48AE-8D65-220F8BD6622C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>9:00 - 9:55 am</t>
   </si>
@@ -49,16 +48,19 @@
     <t>R11 BCS - 6K SE CS-4002</t>
   </si>
   <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>3:00 - 3:55 am</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C92A7-7766-4798-BCA1-08F371E21DD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +424,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -467,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF4A6D6-DCD8-4B68-94EF-F9195F72FD75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -494,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Automated-Attendance-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarosh Irfan\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD8290-CF43-485A-945D-A8185376D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B254A997-7042-48AE-8D65-220F8BD6622C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>9:00 - 9:55 am</t>
   </si>
@@ -51,16 +52,34 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>3:00 - 3:55 am</t>
+    <t>R11 BCS-6H AI CS-2001</t>
+  </si>
+  <si>
+    <t>C12 BCS-6K SE CS-4002</t>
+  </si>
+  <si>
+    <t>R12 BCS-6H CN CS-3003</t>
+  </si>
+  <si>
+    <t>R11 BCS-6K SE CS-4002</t>
+  </si>
+  <si>
+    <t>R12 BCS-6B AI CS-2001</t>
+  </si>
+  <si>
+    <t>10:00 - 10:55 am</t>
+  </si>
+  <si>
+    <t>SundaY</t>
+  </si>
+  <si>
+    <t>11:00 - 11:55 am</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,11 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C92A7-7766-4798-BCA1-08F371E21DD9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +488,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF4A6D6-DCD8-4B68-94EF-F9195F72FD75}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -484,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -493,31 +512,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarosh Irfan\PycharmProjects\pythonProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Automated-Attendance-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD8290-CF43-485A-945D-A8185376D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B254A997-7042-48AE-8D65-220F8BD6622C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="16">
   <si>
     <t>9:00 - 9:55 am</t>
   </si>
@@ -34,52 +36,52 @@
     <t>8:00 - 8:55 am</t>
   </si>
   <si>
-    <t>R11 BCS - 6H AI CS-2001</t>
-  </si>
-  <si>
-    <t>C12 BCS - 6K SE CS-4002</t>
-  </si>
-  <si>
-    <t>R12 BCS - 6H CN CS-3003</t>
-  </si>
-  <si>
-    <t>R12 BCS - 6B AI CS-2001</t>
-  </si>
-  <si>
-    <t>R11 BCS - 6K SE CS-4002</t>
+    <t>R12 BCS-6H CN CS-3003</t>
+  </si>
+  <si>
+    <t>R11 BCS-6K SE CS-4002</t>
+  </si>
+  <si>
+    <t>R12 BCS-6B AI CS-2001</t>
+  </si>
+  <si>
+    <t>10:00 - 10:55 am</t>
+  </si>
+  <si>
+    <t>11:00 - 11:55 am</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>12:00 - 12:55 pm</t>
+  </si>
+  <si>
+    <t>1:00 - 1:55 pm</t>
+  </si>
+  <si>
+    <t>2:00 - 2:55 pm</t>
+  </si>
+  <si>
+    <t>3:00 - 3:55 pm</t>
+  </si>
+  <si>
+    <t>tuesday</t>
   </si>
   <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>R11 BCS-6H AI CS-2001</t>
-  </si>
-  <si>
-    <t>C12 BCS-6K SE CS-4002</t>
-  </si>
-  <si>
-    <t>R12 BCS-6H CN CS-3003</t>
-  </si>
-  <si>
-    <t>R11 BCS-6K SE CS-4002</t>
-  </si>
-  <si>
-    <t>R12 BCS-6B AI CS-2001</t>
-  </si>
-  <si>
-    <t>10:00 - 10:55 am</t>
-  </si>
-  <si>
-    <t>SundaY</t>
-  </si>
-  <si>
-    <t>11:00 - 11:55 am</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C92A7-7766-4798-BCA1-08F371E21DD9}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,42 +443,117 @@
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -488,10 +565,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF4A6D6-DCD8-4B68-94EF-F9195F72FD75}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -501,7 +578,7 @@
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -510,33 +587,501 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="17">
   <si>
     <t>9:00 - 9:55 am</t>
   </si>
@@ -75,7 +75,10 @@
     <t>tuesday</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>4:00 - 4:55 am</t>
   </si>
 </sst>
 </file>
@@ -966,7 +969,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +985,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="18">
   <si>
     <t>9:00 - 9:55 am</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>4:00 - 4:55 am</t>
+  </si>
+  <si>
+    <t>6:00 - 6:55 am</t>
   </si>
 </sst>
 </file>
@@ -435,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +460,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -968,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
